--- a/biology/Médecine/Érythème_pigmenté_fixe/Érythème_pigmenté_fixe.xlsx
+++ b/biology/Médecine/Érythème_pigmenté_fixe/Érythème_pigmenté_fixe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ryth%C3%A8me_pigment%C3%A9_fixe</t>
+          <t>Érythème_pigmenté_fixe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'érythème pigmenté fixe est une lésion dermatologique ayant l'aspect d'une tache brune ovalaire, bien limitée, unique mais parfois multiple. Initialement, la tache était érythémateuse.
 Cette lésion est une toxidermie pure ; c'est la seule dermatose dont l'origine est toujours médicamenteuse : à chaque prise du même médicament, la tache devient érythémateuse, prurigineuse, infiltrée, parfois elle prend l'aspect d'une authentique bulle. À l'arrêt de la prise du médicament, la tache redevient brune et dure plusieurs années.
-L'EPF est dû à une réaction localisée de cytotoxicité de cellules T CD8 positives, entraînant une activation et une souffrance des kératinocytes qui expriment intercellular adhesion molecule (ICAM)-1 (CD54)[1].
+L'EPF est dû à une réaction localisée de cytotoxicité de cellules T CD8 positives, entraînant une activation et une souffrance des kératinocytes qui expriment intercellular adhesion molecule (ICAM)-1 (CD54).
 </t>
         </is>
       </c>
